--- a/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{280C2142-7C38-4558-A0E5-48B221DD6338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03108D95-0570-4410-ABC2-433E95F269A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2CF68335-ECE0-4DB4-BE5C-A0CAB88F5C2A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE906748-B607-4C99-90A8-4A08C9A16D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="375">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -77,1075 +77,1087 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1560,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF187599-7137-4F45-89A8-2410C4A7C54B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6315C9B3-AC2B-485D-9567-AD019D53A6C9}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1768,16 +1780,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>185</v>
@@ -1786,13 +1798,13 @@
         <v>159466</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>324</v>
@@ -1801,13 +1813,13 @@
         <v>166424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
@@ -1816,19 +1828,19 @@
         <v>325889</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>131</v>
@@ -1837,13 +1849,13 @@
         <v>88700</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -1852,13 +1864,13 @@
         <v>94662</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -1867,19 +1879,19 @@
         <v>183362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1888,13 +1900,13 @@
         <v>5887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1903,13 +1915,13 @@
         <v>2605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1918,13 +1930,13 @@
         <v>8492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1951,13 @@
         <v>260298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -1954,13 +1966,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
@@ -1969,18 +1981,18 @@
         <v>531700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1992,13 +2004,13 @@
         <v>2835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2007,13 +2019,13 @@
         <v>4073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2022,13 +2034,13 @@
         <v>6908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2055,13 @@
         <v>59642</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
@@ -2058,13 +2070,13 @@
         <v>65310</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -2073,19 +2085,19 @@
         <v>124952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>284</v>
@@ -2094,13 +2106,13 @@
         <v>381311</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>495</v>
@@ -2109,13 +2121,13 @@
         <v>387300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>779</v>
@@ -2124,19 +2136,19 @@
         <v>768612</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>49</v>
@@ -2145,13 +2157,13 @@
         <v>75508</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -2160,13 +2172,13 @@
         <v>96452</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -2175,19 +2187,19 @@
         <v>171960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2199,10 +2211,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2211,13 +2223,13 @@
         <v>1431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2226,13 +2238,13 @@
         <v>1431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2259,13 @@
         <v>519297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>717</v>
@@ -2262,13 +2274,13 @@
         <v>554566</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1099</v>
@@ -2277,18 +2289,18 @@
         <v>1073864</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2300,13 +2312,13 @@
         <v>8390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2315,13 +2327,13 @@
         <v>7116</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2330,13 +2342,13 @@
         <v>15506</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2363,13 @@
         <v>22981</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2366,13 +2378,13 @@
         <v>34876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2381,19 +2393,19 @@
         <v>57858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>255</v>
@@ -2402,13 +2414,13 @@
         <v>231221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>385</v>
@@ -2417,13 +2429,13 @@
         <v>269564</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>640</v>
@@ -2432,19 +2444,19 @@
         <v>500785</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>61</v>
@@ -2453,13 +2465,13 @@
         <v>54363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -2468,13 +2480,13 @@
         <v>53275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -2483,19 +2495,19 @@
         <v>107638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -2504,13 +2516,13 @@
         <v>5284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2519,10 +2531,10 @@
         <v>4402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>139</v>
@@ -2555,13 +2567,13 @@
         <v>322240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>530</v>
@@ -2570,13 +2582,13 @@
         <v>369232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>890</v>
@@ -2585,13 +2597,13 @@
         <v>691473</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2635,13 @@
         <v>5650</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2638,13 +2650,13 @@
         <v>6257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2671,13 @@
         <v>66023</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -2674,13 +2686,13 @@
         <v>116570</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>251</v>
@@ -2689,19 +2701,19 @@
         <v>182593</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>197</v>
@@ -2710,13 +2722,13 @@
         <v>222216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>361</v>
@@ -2725,13 +2737,13 @@
         <v>255065</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>558</v>
@@ -2740,19 +2752,19 @@
         <v>477281</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>23</v>
@@ -2761,13 +2773,13 @@
         <v>30059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2776,13 +2788,13 @@
         <v>51271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2791,19 +2803,19 @@
         <v>81330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2812,13 +2824,13 @@
         <v>3335</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2830,10 +2842,10 @@
         <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2842,13 +2854,13 @@
         <v>3335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2875,13 @@
         <v>322240</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
@@ -2878,13 +2890,13 @@
         <v>428556</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>891</v>
@@ -2893,18 +2905,18 @@
         <v>750796</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2916,13 +2928,13 @@
         <v>599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2934,10 +2946,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2946,13 +2958,13 @@
         <v>599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2979,13 @@
         <v>13346</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -2982,13 +2994,13 @@
         <v>26625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -2997,19 +3009,19 @@
         <v>39971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>225</v>
@@ -3018,13 +3030,13 @@
         <v>156999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>388</v>
@@ -3033,13 +3045,13 @@
         <v>181884</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>613</v>
@@ -3048,19 +3060,19 @@
         <v>338883</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>32</v>
@@ -3069,13 +3081,13 @@
         <v>24254</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -3084,13 +3096,13 @@
         <v>22536</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>79</v>
@@ -3099,19 +3111,19 @@
         <v>46790</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -3120,13 +3132,13 @@
         <v>1550</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3135,13 +3147,13 @@
         <v>451</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3150,7 +3162,7 @@
         <v>2002</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
@@ -3171,13 +3183,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -3186,13 +3198,13 @@
         <v>231496</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
@@ -3201,18 +3213,18 @@
         <v>428244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3224,13 +3236,13 @@
         <v>1089</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3239,13 +3251,13 @@
         <v>1550</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3254,13 +3266,13 @@
         <v>2639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3287,13 @@
         <v>22630</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3290,13 +3302,13 @@
         <v>24296</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -3305,19 +3317,19 @@
         <v>46926</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>264</v>
@@ -3326,13 +3338,13 @@
         <v>197019</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>346</v>
@@ -3341,13 +3353,13 @@
         <v>210153</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>610</v>
@@ -3356,19 +3368,19 @@
         <v>407172</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>68</v>
@@ -3377,13 +3389,13 @@
         <v>55571</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -3392,13 +3404,13 @@
         <v>37201</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>126</v>
@@ -3407,19 +3419,19 @@
         <v>92772</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -3428,13 +3440,13 @@
         <v>913</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3443,13 +3455,13 @@
         <v>1483</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3458,13 +3470,13 @@
         <v>2396</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>99</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3491,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>459</v>
@@ -3494,13 +3506,13 @@
         <v>274682</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>830</v>
@@ -3509,18 +3521,18 @@
         <v>551905</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3532,13 +3544,13 @@
         <v>12250</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H40" s="7">
         <v>27</v>
@@ -3547,13 +3559,13 @@
         <v>17267</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>40</v>
@@ -3565,10 +3577,10 @@
         <v>20</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3595,13 @@
         <v>62279</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H41" s="7">
         <v>88</v>
@@ -3598,13 +3610,13 @@
         <v>62050</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M41" s="7">
         <v>148</v>
@@ -3613,19 +3625,19 @@
         <v>124329</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>263</v>
@@ -3634,13 +3646,13 @@
         <v>275036</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H42" s="7">
         <v>432</v>
@@ -3649,13 +3661,13 @@
         <v>322812</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M42" s="7">
         <v>695</v>
@@ -3664,19 +3676,19 @@
         <v>597848</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>234</v>
@@ -3685,13 +3697,13 @@
         <v>249358</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H43" s="7">
         <v>363</v>
@@ -3700,13 +3712,13 @@
         <v>368943</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M43" s="7">
         <v>597</v>
@@ -3715,19 +3727,19 @@
         <v>618301</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>29</v>
@@ -3736,13 +3748,13 @@
         <v>28831</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H44" s="7">
         <v>49</v>
@@ -3751,13 +3763,13 @@
         <v>32215</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M44" s="7">
         <v>78</v>
@@ -3766,13 +3778,13 @@
         <v>61046</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3799,13 @@
         <v>627754</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>959</v>
@@ -3802,13 +3814,13 @@
         <v>803287</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>1558</v>
@@ -3817,18 +3829,18 @@
         <v>1431041</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3840,13 +3852,13 @@
         <v>2281</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -3855,13 +3867,13 @@
         <v>2878</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -3870,13 +3882,13 @@
         <v>5159</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3903,13 @@
         <v>20513</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
@@ -3906,13 +3918,13 @@
         <v>50815</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M47" s="7">
         <v>81</v>
@@ -3921,19 +3933,19 @@
         <v>71328</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="7">
         <v>332</v>
@@ -3942,13 +3954,13 @@
         <v>343344</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H48" s="7">
         <v>450</v>
@@ -3957,13 +3969,13 @@
         <v>371255</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M48" s="7">
         <v>782</v>
@@ -3972,19 +3984,19 @@
         <v>714598</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7">
         <v>384</v>
@@ -3993,13 +4005,13 @@
         <v>414979</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H49" s="7">
         <v>529</v>
@@ -4008,13 +4020,13 @@
         <v>427252</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M49" s="7">
         <v>913</v>
@@ -4023,19 +4035,19 @@
         <v>842231</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>22</v>
@@ -4044,13 +4056,13 @@
         <v>78311</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H50" s="7">
         <v>20</v>
@@ -4059,13 +4071,13 @@
         <v>16235</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>139</v>
+        <v>333</v>
       </c>
       <c r="M50" s="7">
         <v>42</v>
@@ -4074,13 +4086,13 @@
         <v>94546</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4107,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H51" s="7">
         <v>1062</v>
@@ -4110,13 +4122,13 @@
         <v>868434</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M51" s="7">
         <v>1824</v>
@@ -4125,13 +4137,13 @@
         <v>1727862</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4160,13 @@
         <v>28924</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>334</v>
+        <v>102</v>
       </c>
       <c r="H52" s="7">
         <v>58</v>
@@ -4163,10 +4175,10 @@
         <v>39570</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>140</v>
@@ -4178,13 +4190,13 @@
         <v>68494</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>337</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4211,13 @@
         <v>272787</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H53" s="7">
         <v>581</v>
@@ -4214,13 +4226,13 @@
         <v>387218</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M53" s="7">
         <v>869</v>
@@ -4229,19 +4241,19 @@
         <v>660005</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="7">
         <v>2005</v>
@@ -4250,13 +4262,13 @@
         <v>1966612</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H54" s="7">
         <v>3181</v>
@@ -4265,13 +4277,13 @@
         <v>2164455</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M54" s="7">
         <v>5186</v>
@@ -4280,19 +4292,19 @@
         <v>4131067</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7">
         <v>982</v>
@@ -4301,13 +4313,13 @@
         <v>992794</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H55" s="7">
         <v>1449</v>
@@ -4316,13 +4328,13 @@
         <v>1151591</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M55" s="7">
         <v>2431</v>
@@ -4331,19 +4343,19 @@
         <v>2144384</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7">
         <v>69</v>
@@ -4352,13 +4364,13 @@
         <v>124112</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>365</v>
+        <v>148</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H56" s="7">
         <v>86</v>
@@ -4367,13 +4379,13 @@
         <v>58822</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>52</v>
+        <v>367</v>
       </c>
       <c r="M56" s="7">
         <v>155</v>
@@ -4382,13 +4394,13 @@
         <v>182933</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>62</v>
+        <v>372</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4415,13 @@
         <v>3385228</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H57" s="7">
         <v>5355</v>
@@ -4418,13 +4430,13 @@
         <v>3801656</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M57" s="7">
         <v>8731</v>
@@ -4433,18 +4445,18 @@
         <v>7186884</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03108D95-0570-4410-ABC2-433E95F269A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0BD725-028A-4A45-A02B-B8F2D40BC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE906748-B607-4C99-90A8-4A08C9A16D89}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{195E60D2-E148-4044-B84C-DBE09D111840}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1572,7 +1572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6315C9B3-AC2B-485D-9567-AD019D53A6C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9853E5-41A6-40B1-9D8E-1CF00999CCD6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0BD725-028A-4A45-A02B-B8F2D40BC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5E8D07-608C-451D-AD3E-4C71AE5BC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{195E60D2-E148-4044-B84C-DBE09D111840}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D47ADA4-4318-4F59-8431-35D436CF615C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="371">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -92,7 +92,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -101,1063 +101,1051 @@
     <t>2,06%</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1572,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9853E5-41A6-40B1-9D8E-1CF00999CCD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65F4D20-9AAE-49BC-8033-5EA6129F1C3A}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,16 +1768,16 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>185</v>
@@ -1798,13 +1786,13 @@
         <v>159466</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>324</v>
@@ -1813,13 +1801,13 @@
         <v>166424</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
@@ -1828,19 +1816,19 @@
         <v>325889</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>131</v>
@@ -1849,13 +1837,13 @@
         <v>88700</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -1864,13 +1852,13 @@
         <v>94662</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
@@ -1879,19 +1867,19 @@
         <v>183362</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1900,13 +1888,13 @@
         <v>5887</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1915,13 +1903,13 @@
         <v>2605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -1930,13 +1918,13 @@
         <v>8492</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,13 +1939,13 @@
         <v>260298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -1966,13 +1954,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
@@ -1981,18 +1969,18 @@
         <v>531700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2004,13 +1992,13 @@
         <v>2835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2019,13 +2007,13 @@
         <v>4073</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2034,13 +2022,13 @@
         <v>6908</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2043,13 @@
         <v>59642</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
@@ -2070,13 +2058,13 @@
         <v>65310</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -2085,19 +2073,19 @@
         <v>124952</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>284</v>
@@ -2106,13 +2094,13 @@
         <v>381311</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>495</v>
@@ -2121,13 +2109,13 @@
         <v>387300</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>779</v>
@@ -2136,19 +2124,19 @@
         <v>768612</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>49</v>
@@ -2157,13 +2145,13 @@
         <v>75508</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
@@ -2172,13 +2160,13 @@
         <v>96452</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -2187,19 +2175,19 @@
         <v>171960</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2211,10 +2199,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2223,13 +2211,13 @@
         <v>1431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2238,13 +2226,13 @@
         <v>1431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2247,13 @@
         <v>519297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>717</v>
@@ -2274,13 +2262,13 @@
         <v>554566</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1099</v>
@@ -2289,18 +2277,18 @@
         <v>1073864</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2312,13 +2300,13 @@
         <v>8390</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2327,13 +2315,13 @@
         <v>7116</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2342,13 +2330,13 @@
         <v>15506</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2351,13 @@
         <v>22981</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2378,13 +2366,13 @@
         <v>34876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2393,19 +2381,19 @@
         <v>57858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>255</v>
@@ -2414,13 +2402,13 @@
         <v>231221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>385</v>
@@ -2429,13 +2417,13 @@
         <v>269564</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>640</v>
@@ -2444,19 +2432,19 @@
         <v>500785</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
         <v>61</v>
@@ -2465,13 +2453,13 @@
         <v>54363</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -2480,13 +2468,13 @@
         <v>53275</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -2495,19 +2483,19 @@
         <v>107638</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -2516,13 +2504,13 @@
         <v>5284</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2531,10 +2519,10 @@
         <v>4402</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>139</v>
@@ -2567,13 +2555,13 @@
         <v>322240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>530</v>
@@ -2582,13 +2570,13 @@
         <v>369232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>890</v>
@@ -2597,13 +2585,13 @@
         <v>691473</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2623,13 @@
         <v>5650</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2650,13 +2638,13 @@
         <v>6257</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2659,13 @@
         <v>66023</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -2686,13 +2674,13 @@
         <v>116570</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>251</v>
@@ -2701,19 +2689,19 @@
         <v>182593</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <v>197</v>
@@ -2722,13 +2710,13 @@
         <v>222216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>361</v>
@@ -2737,13 +2725,13 @@
         <v>255065</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>558</v>
@@ -2752,19 +2740,19 @@
         <v>477281</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
         <v>23</v>
@@ -2773,13 +2761,13 @@
         <v>30059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2788,13 +2776,13 @@
         <v>51271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2803,19 +2791,19 @@
         <v>81330</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2824,13 +2812,13 @@
         <v>3335</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2842,10 +2830,10 @@
         <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2854,13 +2842,13 @@
         <v>3335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2863,13 @@
         <v>322240</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
@@ -2890,13 +2878,13 @@
         <v>428556</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>891</v>
@@ -2905,18 +2893,18 @@
         <v>750796</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2928,13 +2916,13 @@
         <v>599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2946,10 +2934,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2958,13 +2946,13 @@
         <v>599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2967,13 @@
         <v>13346</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -2994,13 +2982,13 @@
         <v>26625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -3009,19 +2997,19 @@
         <v>39971</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>225</v>
@@ -3030,13 +3018,13 @@
         <v>156999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>388</v>
@@ -3045,13 +3033,13 @@
         <v>181884</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>613</v>
@@ -3060,19 +3048,19 @@
         <v>338883</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
         <v>32</v>
@@ -3081,13 +3069,13 @@
         <v>24254</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -3096,13 +3084,13 @@
         <v>22536</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>79</v>
@@ -3111,19 +3099,19 @@
         <v>46790</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -3132,13 +3120,13 @@
         <v>1550</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3147,13 +3135,13 @@
         <v>451</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3162,7 +3150,7 @@
         <v>2002</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
@@ -3183,13 +3171,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -3198,13 +3186,13 @@
         <v>231496</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
@@ -3213,18 +3201,18 @@
         <v>428244</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3236,13 +3224,13 @@
         <v>1089</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3251,13 +3239,13 @@
         <v>1550</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3266,13 +3254,13 @@
         <v>2639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3275,13 @@
         <v>22630</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
@@ -3302,13 +3290,13 @@
         <v>24296</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
@@ -3317,19 +3305,19 @@
         <v>46926</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <v>264</v>
@@ -3338,13 +3326,13 @@
         <v>197019</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H36" s="7">
         <v>346</v>
@@ -3353,13 +3341,13 @@
         <v>210153</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>610</v>
@@ -3368,19 +3356,19 @@
         <v>407172</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
         <v>68</v>
@@ -3389,13 +3377,13 @@
         <v>55571</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -3404,13 +3392,13 @@
         <v>37201</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>126</v>
@@ -3419,19 +3407,19 @@
         <v>92772</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -3440,13 +3428,13 @@
         <v>913</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3455,13 +3443,13 @@
         <v>1483</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3470,13 +3458,13 @@
         <v>2396</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3479,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>459</v>
@@ -3506,13 +3494,13 @@
         <v>274682</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>830</v>
@@ -3521,18 +3509,18 @@
         <v>551905</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3544,13 +3532,13 @@
         <v>12250</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>27</v>
@@ -3559,13 +3547,13 @@
         <v>17267</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>40</v>
@@ -3577,10 +3565,10 @@
         <v>20</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3583,13 @@
         <v>62279</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H41" s="7">
         <v>88</v>
@@ -3610,13 +3598,13 @@
         <v>62050</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>148</v>
@@ -3625,19 +3613,19 @@
         <v>124329</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="7">
         <v>263</v>
@@ -3646,13 +3634,13 @@
         <v>275036</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>432</v>
@@ -3661,13 +3649,13 @@
         <v>322812</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M42" s="7">
         <v>695</v>
@@ -3676,19 +3664,19 @@
         <v>597848</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="7">
         <v>234</v>
@@ -3697,13 +3685,13 @@
         <v>249358</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H43" s="7">
         <v>363</v>
@@ -3712,13 +3700,13 @@
         <v>368943</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M43" s="7">
         <v>597</v>
@@ -3727,19 +3715,19 @@
         <v>618301</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>29</v>
@@ -3748,13 +3736,13 @@
         <v>28831</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>49</v>
@@ -3763,13 +3751,13 @@
         <v>32215</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>78</v>
@@ -3778,13 +3766,13 @@
         <v>61046</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3787,13 @@
         <v>627754</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>959</v>
@@ -3814,13 +3802,13 @@
         <v>803287</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1558</v>
@@ -3829,18 +3817,18 @@
         <v>1431041</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3840,13 @@
         <v>2281</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -3867,13 +3855,13 @@
         <v>2878</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -3882,13 +3870,13 @@
         <v>5159</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>65</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3891,13 @@
         <v>20513</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
@@ -3918,13 +3906,13 @@
         <v>50815</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M47" s="7">
         <v>81</v>
@@ -3933,19 +3921,19 @@
         <v>71328</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="7">
         <v>332</v>
@@ -3954,13 +3942,13 @@
         <v>343344</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H48" s="7">
         <v>450</v>
@@ -3969,13 +3957,13 @@
         <v>371255</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M48" s="7">
         <v>782</v>
@@ -3984,19 +3972,19 @@
         <v>714598</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7">
         <v>384</v>
@@ -4005,13 +3993,13 @@
         <v>414979</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H49" s="7">
         <v>529</v>
@@ -4020,13 +4008,13 @@
         <v>427252</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M49" s="7">
         <v>913</v>
@@ -4035,19 +4023,19 @@
         <v>842231</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7">
         <v>22</v>
@@ -4056,13 +4044,13 @@
         <v>78311</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H50" s="7">
         <v>20</v>
@@ -4071,13 +4059,13 @@
         <v>16235</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="M50" s="7">
         <v>42</v>
@@ -4086,13 +4074,13 @@
         <v>94546</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4095,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1062</v>
@@ -4122,13 +4110,13 @@
         <v>868434</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1824</v>
@@ -4137,13 +4125,13 @@
         <v>1727862</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4148,13 @@
         <v>28924</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="H52" s="7">
         <v>58</v>
@@ -4175,10 +4163,10 @@
         <v>39570</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>140</v>
@@ -4190,13 +4178,13 @@
         <v>68494</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4199,13 @@
         <v>272787</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H53" s="7">
         <v>581</v>
@@ -4226,13 +4214,13 @@
         <v>387218</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M53" s="7">
         <v>869</v>
@@ -4241,19 +4229,19 @@
         <v>660005</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="7">
         <v>2005</v>
@@ -4262,13 +4250,13 @@
         <v>1966612</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H54" s="7">
         <v>3181</v>
@@ -4277,13 +4265,13 @@
         <v>2164455</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M54" s="7">
         <v>5186</v>
@@ -4292,19 +4280,19 @@
         <v>4131067</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7">
         <v>982</v>
@@ -4313,13 +4301,13 @@
         <v>992794</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H55" s="7">
         <v>1449</v>
@@ -4328,13 +4316,13 @@
         <v>1151591</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M55" s="7">
         <v>2431</v>
@@ -4343,19 +4331,19 @@
         <v>2144384</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="7">
         <v>69</v>
@@ -4364,13 +4352,13 @@
         <v>124112</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H56" s="7">
         <v>86</v>
@@ -4379,13 +4367,13 @@
         <v>58822</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>369</v>
+        <v>180</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="M56" s="7">
         <v>155</v>
@@ -4394,13 +4382,13 @@
         <v>182933</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>372</v>
+        <v>62</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4403,13 @@
         <v>3385228</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5355</v>
@@ -4430,13 +4418,13 @@
         <v>3801656</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8731</v>
@@ -4445,18 +4433,18 @@
         <v>7186884</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5E8D07-608C-451D-AD3E-4C71AE5BC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426B5A55-8D5A-4035-BBFD-63B8E49DB8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D47ADA4-4318-4F59-8431-35D436CF615C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD56A339-02E9-4E01-A817-15A02E3E4FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="374">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -71,1081 +71,1090 @@
     <t>Nunca o casi nunca</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1560,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65F4D20-9AAE-49BC-8033-5EA6129F1C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ABFD19-5A9D-4281-8937-89BF6FF0A246}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1681,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>873</v>
+        <v>997</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1696,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1037</v>
+        <v>1086</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1711,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1909</v>
+        <v>2083</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1732,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>5372</v>
+        <v>6335</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1747,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>6676</v>
+        <v>9029</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1762,169 +1771,169 @@
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>12048</v>
+        <v>15364</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>159466</v>
+        <v>189402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>324</v>
       </c>
       <c r="I6" s="7">
-        <v>166424</v>
+        <v>175897</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
       </c>
       <c r="N6" s="7">
-        <v>325889</v>
+        <v>365298</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>131</v>
       </c>
       <c r="D7" s="7">
-        <v>88700</v>
+        <v>108160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
       </c>
       <c r="I7" s="7">
-        <v>94662</v>
+        <v>100922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>329</v>
       </c>
       <c r="N7" s="7">
-        <v>183362</v>
+        <v>209081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>5887</v>
+        <v>6548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>2605</v>
+        <v>2702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>8492</v>
+        <v>9250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,51 +1945,51 @@
         <v>331</v>
       </c>
       <c r="D9" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>869</v>
       </c>
       <c r="N9" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1989,46 +1998,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2835</v>
+        <v>2808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4073</v>
+        <v>3777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>6908</v>
+        <v>6585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,154 +2049,154 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>59642</v>
+        <v>60022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>65310</v>
+        <v>60497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
       </c>
       <c r="N11" s="7">
-        <v>124952</v>
+        <v>120519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>284</v>
       </c>
       <c r="D12" s="7">
-        <v>381311</v>
+        <v>377746</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>495</v>
       </c>
       <c r="I12" s="7">
-        <v>387300</v>
+        <v>359434</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>779</v>
       </c>
       <c r="N12" s="7">
-        <v>768612</v>
+        <v>737179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>75508</v>
+        <v>77814</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
       </c>
       <c r="I13" s="7">
-        <v>96452</v>
+        <v>89937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
       </c>
       <c r="N13" s="7">
-        <v>171960</v>
+        <v>167751</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2199,40 +2208,40 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1431</v>
+        <v>1325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1431</v>
+        <v>1325</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,51 +2253,51 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>717</v>
       </c>
       <c r="I15" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1099</v>
       </c>
       <c r="N15" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2297,28 +2306,28 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>8390</v>
+        <v>8150</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>7116</v>
+        <v>6671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>103</v>
@@ -2327,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>15506</v>
+        <v>14821</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2348,7 +2357,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>22981</v>
+        <v>22375</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2363,7 +2372,7 @@
         <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>34876</v>
+        <v>32747</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2378,7 +2387,7 @@
         <v>77</v>
       </c>
       <c r="N17" s="7">
-        <v>57858</v>
+        <v>55121</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -2393,13 +2402,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>255</v>
       </c>
       <c r="D18" s="7">
-        <v>231221</v>
+        <v>227355</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2414,7 +2423,7 @@
         <v>385</v>
       </c>
       <c r="I18" s="7">
-        <v>269564</v>
+        <v>252031</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2429,7 +2438,7 @@
         <v>640</v>
       </c>
       <c r="N18" s="7">
-        <v>500785</v>
+        <v>479386</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -2444,13 +2453,13 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>54363</v>
+        <v>53008</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -2465,7 +2474,7 @@
         <v>79</v>
       </c>
       <c r="I19" s="7">
-        <v>53275</v>
+        <v>49801</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -2480,7 +2489,7 @@
         <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>107638</v>
+        <v>102809</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -2495,13 +2504,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>5284</v>
+        <v>5162</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -2516,31 +2525,31 @@
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>4402</v>
+        <v>4137</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>9686</v>
+        <v>9300</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,51 +2561,51 @@
         <v>360</v>
       </c>
       <c r="D21" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>530</v>
       </c>
       <c r="I21" s="7">
-        <v>369232</v>
+        <v>345387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>890</v>
       </c>
       <c r="N21" s="7">
-        <v>691473</v>
+        <v>661437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2605,46 +2614,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>5650</v>
+        <v>5211</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>6257</v>
+        <v>5795</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,43 +2665,43 @@
         <v>70</v>
       </c>
       <c r="D23" s="7">
-        <v>66023</v>
+        <v>63694</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
       </c>
       <c r="I23" s="7">
-        <v>116570</v>
+        <v>108318</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>251</v>
       </c>
       <c r="N23" s="7">
-        <v>182593</v>
+        <v>172012</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>156</v>
@@ -2701,13 +2710,13 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>197</v>
       </c>
       <c r="D24" s="7">
-        <v>222216</v>
+        <v>217229</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>157</v>
@@ -2722,7 +2731,7 @@
         <v>361</v>
       </c>
       <c r="I24" s="7">
-        <v>255065</v>
+        <v>259765</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>160</v>
@@ -2737,7 +2746,7 @@
         <v>558</v>
       </c>
       <c r="N24" s="7">
-        <v>477281</v>
+        <v>476993</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>163</v>
@@ -2752,13 +2761,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>30059</v>
+        <v>27913</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>166</v>
@@ -2773,7 +2782,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>51271</v>
+        <v>102425</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>169</v>
@@ -2788,7 +2797,7 @@
         <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>81330</v>
+        <v>130337</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>172</v>
@@ -2803,13 +2812,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>3335</v>
+        <v>3138</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>175</v>
@@ -2830,25 +2839,25 @@
         <v>12</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>3335</v>
+        <v>3138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,51 +2869,51 @@
         <v>292</v>
       </c>
       <c r="D27" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
       </c>
       <c r="I27" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>891</v>
       </c>
       <c r="N27" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2913,16 +2922,16 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2934,7 +2943,7 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>181</v>
@@ -2943,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>182</v>
@@ -2964,7 +2973,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="7">
-        <v>13346</v>
+        <v>12169</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>184</v>
@@ -2979,7 +2988,7 @@
         <v>55</v>
       </c>
       <c r="I29" s="7">
-        <v>26625</v>
+        <v>24062</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>187</v>
@@ -2994,169 +3003,169 @@
         <v>75</v>
       </c>
       <c r="N29" s="7">
-        <v>39971</v>
+        <v>36231</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>225</v>
       </c>
       <c r="D30" s="7">
-        <v>156999</v>
+        <v>142861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>388</v>
       </c>
       <c r="I30" s="7">
-        <v>181884</v>
+        <v>163419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>613</v>
       </c>
       <c r="N30" s="7">
-        <v>338883</v>
+        <v>306279</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>32</v>
       </c>
       <c r="D31" s="7">
-        <v>24254</v>
+        <v>21808</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
       </c>
       <c r="I31" s="7">
-        <v>22536</v>
+        <v>20382</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>79</v>
       </c>
       <c r="N31" s="7">
-        <v>46790</v>
+        <v>42189</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>2002</v>
+        <v>1774</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,51 +3177,51 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
       </c>
       <c r="I33" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>770</v>
       </c>
       <c r="N33" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3221,46 +3230,46 @@
         <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1089</v>
+        <v>1036</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>1550</v>
+        <v>1428</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>182</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>2639</v>
+        <v>2464</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,199 +3281,199 @@
         <v>36</v>
       </c>
       <c r="D35" s="7">
-        <v>22630</v>
+        <v>21907</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7">
         <v>50</v>
       </c>
       <c r="I35" s="7">
-        <v>24296</v>
+        <v>22646</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>86</v>
       </c>
       <c r="N35" s="7">
-        <v>46926</v>
+        <v>44553</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>264</v>
       </c>
       <c r="D36" s="7">
-        <v>197019</v>
+        <v>192230</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="H36" s="7">
         <v>346</v>
       </c>
       <c r="I36" s="7">
-        <v>210153</v>
+        <v>196493</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>610</v>
       </c>
       <c r="N36" s="7">
-        <v>407172</v>
+        <v>388723</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>68</v>
       </c>
       <c r="D37" s="7">
-        <v>55571</v>
+        <v>53579</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
       </c>
       <c r="I37" s="7">
-        <v>37201</v>
+        <v>34249</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>126</v>
       </c>
       <c r="N37" s="7">
-        <v>92772</v>
+        <v>87828</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>913</v>
+        <v>884</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>1483</v>
+        <v>1364</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>2396</v>
+        <v>2248</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,51 +3485,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>459</v>
       </c>
       <c r="I39" s="7">
-        <v>274682</v>
+        <v>256180</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>830</v>
       </c>
       <c r="N39" s="7">
-        <v>551905</v>
+        <v>525816</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3529,28 +3538,28 @@
         <v>13</v>
       </c>
       <c r="D40" s="7">
-        <v>12250</v>
+        <v>12023</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>175</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>27</v>
       </c>
       <c r="I40" s="7">
-        <v>17267</v>
+        <v>16094</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>51</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>258</v>
@@ -3559,16 +3568,16 @@
         <v>40</v>
       </c>
       <c r="N40" s="7">
-        <v>29517</v>
+        <v>28117</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,37 +3589,37 @@
         <v>60</v>
       </c>
       <c r="D41" s="7">
-        <v>62279</v>
+        <v>60801</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>88</v>
       </c>
       <c r="I41" s="7">
-        <v>62050</v>
+        <v>57355</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>148</v>
       </c>
       <c r="N41" s="7">
-        <v>124329</v>
+        <v>118156</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>267</v>
@@ -3619,160 +3628,160 @@
         <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>263</v>
       </c>
       <c r="D42" s="7">
-        <v>275036</v>
+        <v>271237</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H42" s="7">
         <v>432</v>
       </c>
       <c r="I42" s="7">
-        <v>322812</v>
+        <v>299269</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>695</v>
       </c>
       <c r="N42" s="7">
-        <v>597848</v>
+        <v>570506</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>234</v>
       </c>
       <c r="D43" s="7">
-        <v>249358</v>
+        <v>252283</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>363</v>
       </c>
       <c r="I43" s="7">
-        <v>368943</v>
+        <v>445703</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>597</v>
       </c>
       <c r="N43" s="7">
-        <v>618301</v>
+        <v>697986</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>29</v>
       </c>
       <c r="D44" s="7">
-        <v>28831</v>
+        <v>27936</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>49</v>
       </c>
       <c r="I44" s="7">
-        <v>32215</v>
+        <v>29983</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>78</v>
       </c>
       <c r="N44" s="7">
-        <v>61046</v>
+        <v>57920</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,51 +3793,51 @@
         <v>599</v>
       </c>
       <c r="D45" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>959</v>
       </c>
       <c r="I45" s="7">
-        <v>803287</v>
+        <v>848405</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>1558</v>
       </c>
       <c r="N45" s="7">
-        <v>1431041</v>
+        <v>1472684</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3837,46 +3846,46 @@
         <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>2281</v>
+        <v>1958</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
       </c>
       <c r="I46" s="7">
-        <v>2878</v>
+        <v>2442</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
       </c>
       <c r="N46" s="7">
-        <v>5159</v>
+        <v>4400</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,199 +3897,199 @@
         <v>22</v>
       </c>
       <c r="D47" s="7">
-        <v>20513</v>
+        <v>17428</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H47" s="7">
         <v>59</v>
       </c>
       <c r="I47" s="7">
-        <v>50815</v>
+        <v>41846</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M47" s="7">
         <v>81</v>
       </c>
       <c r="N47" s="7">
-        <v>71328</v>
+        <v>59273</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="7">
         <v>332</v>
       </c>
       <c r="D48" s="7">
-        <v>343344</v>
+        <v>290497</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H48" s="7">
         <v>450</v>
       </c>
       <c r="I48" s="7">
-        <v>371255</v>
+        <v>307351</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M48" s="7">
         <v>782</v>
       </c>
       <c r="N48" s="7">
-        <v>714598</v>
+        <v>597848</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7">
         <v>384</v>
       </c>
       <c r="D49" s="7">
-        <v>414979</v>
+        <v>351912</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H49" s="7">
         <v>529</v>
       </c>
       <c r="I49" s="7">
-        <v>427252</v>
+        <v>352590</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M49" s="7">
         <v>913</v>
       </c>
       <c r="N49" s="7">
-        <v>842231</v>
+        <v>704503</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>22</v>
       </c>
       <c r="D50" s="7">
-        <v>78311</v>
+        <v>266925</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H50" s="7">
         <v>20</v>
       </c>
       <c r="I50" s="7">
-        <v>16235</v>
+        <v>13502</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="M50" s="7">
         <v>42</v>
       </c>
       <c r="N50" s="7">
-        <v>94546</v>
+        <v>280427</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,46 +4101,46 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="7">
         <v>1062</v>
       </c>
       <c r="I51" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M51" s="7">
         <v>1824</v>
       </c>
       <c r="N51" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,46 +4154,46 @@
         <v>32</v>
       </c>
       <c r="D52" s="7">
-        <v>28924</v>
+        <v>28097</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H52" s="7">
         <v>58</v>
       </c>
       <c r="I52" s="7">
-        <v>39570</v>
+        <v>36710</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>335</v>
+        <v>61</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="M52" s="7">
         <v>90</v>
       </c>
       <c r="N52" s="7">
-        <v>68494</v>
+        <v>64807</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,199 +4205,199 @@
         <v>288</v>
       </c>
       <c r="D53" s="7">
-        <v>272787</v>
+        <v>264731</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H53" s="7">
         <v>581</v>
       </c>
       <c r="I53" s="7">
-        <v>387218</v>
+        <v>356498</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M53" s="7">
         <v>869</v>
       </c>
       <c r="N53" s="7">
-        <v>660005</v>
+        <v>621230</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="7">
         <v>2005</v>
       </c>
       <c r="D54" s="7">
-        <v>1966612</v>
+        <v>1908556</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H54" s="7">
         <v>3181</v>
       </c>
       <c r="I54" s="7">
-        <v>2164455</v>
+        <v>2013657</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M54" s="7">
         <v>5186</v>
       </c>
       <c r="N54" s="7">
-        <v>4131067</v>
+        <v>3922213</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" s="7">
         <v>982</v>
       </c>
       <c r="D55" s="7">
-        <v>992794</v>
+        <v>946477</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H55" s="7">
         <v>1449</v>
       </c>
       <c r="I55" s="7">
-        <v>1151591</v>
+        <v>1196008</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M55" s="7">
         <v>2431</v>
       </c>
       <c r="N55" s="7">
-        <v>2144384</v>
+        <v>2142484</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7">
         <v>69</v>
       </c>
       <c r="D56" s="7">
-        <v>124112</v>
+        <v>311956</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H56" s="7">
         <v>86</v>
       </c>
       <c r="I56" s="7">
-        <v>58822</v>
+        <v>53426</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>180</v>
+        <v>369</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="M56" s="7">
         <v>155</v>
       </c>
       <c r="N56" s="7">
-        <v>182933</v>
+        <v>365382</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,51 +4409,51 @@
         <v>3376</v>
       </c>
       <c r="D57" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
         <v>5355</v>
       </c>
       <c r="I57" s="7">
-        <v>3801656</v>
+        <v>3656299</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>8731</v>
       </c>
       <c r="N57" s="7">
-        <v>7186884</v>
+        <v>7116116</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
